--- a/Rabbit/Convection_Related_Plots/Rabbit_Macula_Results_Middle_Vitreous_Slow.xlsx
+++ b/Rabbit/Convection_Related_Plots/Rabbit_Macula_Results_Middle_Vitreous_Slow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Slow convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Rabbit/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EEB6701-899A-4A9E-8C4A-E626B3435CA8}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{4297560E-3861-43A8-BF5C-3FEE0C062D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF29771C-8AAC-4B9F-9D71-731FF0A7995E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{26FFA8E2-5374-4B2B-9A88-9D55D5004369}"/>
   </bookViews>
@@ -99,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -128,7 +134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,9 +156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +196,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +444,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F12E1E1-F417-4873-A457-46982C3441A7}">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E67" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76:N86"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +477,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
       <c r="G1" t="s">
         <v>5</v>
       </c>
@@ -527,19 +535,19 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
@@ -554,19 +562,19 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" t="s">
         <v>12</v>
       </c>
       <c r="R5" t="s">
@@ -1409,10 +1417,10 @@
         <f t="shared" si="2"/>
         <v>0.14999588609821835</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>6</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <f t="shared" si="6"/>
         <v>0.80166218891456409</v>
       </c>
@@ -1440,10 +1448,10 @@
         <f t="shared" si="5"/>
         <v>0.17273491932402368</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="4">
         <v>6</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="4">
         <f t="shared" si="7"/>
         <v>0.87853156800777088</v>
       </c>
@@ -1632,10 +1640,10 @@
         <f t="shared" si="5"/>
         <v>1.1241969949492437E-2</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="6">
         <v>7.5</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="6">
         <f t="shared" si="7"/>
         <v>5.7190747937897843E-2</v>
       </c>
@@ -2857,13 +2865,13 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>18</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="7">
         <v>3.2010474031761598E-5</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <f t="shared" si="0"/>
         <v>4.769560630732478</v>
       </c>
@@ -3689,13 +3697,13 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>24.5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="5">
         <v>3.8199990786875003E-6</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <f t="shared" si="0"/>
         <v>0.56917986272443755</v>
       </c>
@@ -5320,13 +5328,13 @@
         <f t="shared" si="14"/>
         <v>3.0569633600444497E-17</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="4">
         <v>37</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="5">
         <v>3.4254655355901301E-6</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="4">
         <f t="shared" si="13"/>
         <v>0.51039436480292943</v>
       </c>
